--- a/Project_2/Tableau.xlsx
+++ b/Project_2/Tableau.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cyrusrustomji/Documents/metis/metisgh/metis/Project_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C884E6E-17F6-9849-8259-F78626064545}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD51FE97-F75A-8D46-8326-2AF506446813}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16540" xr2:uid="{0730F4B1-5970-4445-AB33-41518C74921D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$11</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>Year</t>
   </si>
@@ -37,19 +40,64 @@
   </si>
   <si>
     <t>USA</t>
+  </si>
+  <si>
+    <t>5.85082569e+04,  8.76280439e+03, -6.14427093e-02,  1.87248449e-03,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       -7.58629246e+04])</t>
+  </si>
+  <si>
+    <t>GDP1</t>
+  </si>
+  <si>
+    <t>GDP2</t>
+  </si>
+  <si>
+    <t>Pop1</t>
+  </si>
+  <si>
+    <t>Pop2</t>
+  </si>
+  <si>
+    <t>FP</t>
+  </si>
+  <si>
+    <t>7.38792568e+04,  6.82468238e+03, -6.21720209e-02,  1.87915665e-03,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       -9.99402564e+04]</t>
+  </si>
+  <si>
+    <t>US GDP</t>
+  </si>
+  <si>
+    <t>GP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -72,8 +120,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,13 +440,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AEB1C8E-600B-CD48-B666-497184B56467}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C11"/>
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -409,10 +464,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>2007</v>
+        <v>2016</v>
       </c>
       <c r="B2">
-        <v>1052415</v>
+        <v>1183505</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -420,10 +475,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B3">
-        <v>1107126</v>
+        <v>1130818</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -431,10 +486,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B4">
-        <v>1130818</v>
+        <v>1107126</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -442,10 +497,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B5">
-        <v>1042625</v>
+        <v>1062040</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
@@ -453,10 +508,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="B6">
-        <v>1062040</v>
+        <v>1052415</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
@@ -464,10 +519,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="B7">
-        <v>1031631</v>
+        <v>1051031</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
@@ -475,10 +530,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="B8">
-        <v>990553</v>
+        <v>1042625</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
@@ -486,10 +541,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="B9">
-        <v>1016518</v>
+        <v>1031631</v>
       </c>
       <c r="C9" t="s">
         <v>3</v>
@@ -497,10 +552,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B10">
-        <v>1051031</v>
+        <v>1016518</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
@@ -508,16 +563,135 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="B11">
-        <v>1183505</v>
+        <v>990553</v>
       </c>
       <c r="C11" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B20" s="2">
+        <v>68641.856700000004</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B21" s="2">
+        <v>5371.6918500000002</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B22" s="2">
+        <v>-5.5331528300000002E-2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B23" s="2">
+        <v>1.6972696700000001E-3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="2">
+        <v>-99940.256399999998</v>
+      </c>
+      <c r="I23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B24" s="4">
+        <v>-75201.974100000007</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="2">
+        <v>73879.256800000003</v>
+      </c>
+      <c r="I24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H25" s="2">
+        <v>6824.6823800000002</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B26" s="1"/>
+      <c r="H26" s="2">
+        <v>-6.21720209E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B27" s="3"/>
+      <c r="H27" s="2">
+        <v>1.8791566500000001E-3</v>
+      </c>
+      <c r="I27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B28" s="4"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B29" s="2">
+        <v>-6.0280382E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B30" s="2">
+        <v>70587.433499999999</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B31" s="2">
+        <v>4872.1556700000001</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B32" s="2">
+        <v>1.8563748100000001E-3</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E33" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:C11" xr:uid="{339317B2-F077-C743-84D0-83730E143DF0}">
+    <sortState ref="A2:C11">
+      <sortCondition descending="1" ref="B1:B11"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>